--- a/biology/Zoologie/Allokotosauria/Allokotosauria.xlsx
+++ b/biology/Zoologie/Allokotosauria/Allokotosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Allokotosauria (allokotosaures en français) forment un clade éteint d'archosauromorphes crocopodes herbivores, d'une taille moyenne de l'ordre de 2 mètres, qui se subdivise en deux familles, les Trilophosauridae et les Azendohsauridae[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Allokotosauria (allokotosaures en français) forment un clade éteint d'archosauromorphes crocopodes herbivores, d'une taille moyenne de l'ordre de 2 mètres, qui se subdivise en deux familles, les Trilophosauridae et les Azendohsauridae.
 Les allokotosaures sont connus en Afrique (Maroc, Madagascar), en Inde, aux États-Unis (Arizona, Nouveau-Mexique, Texas) et en Russie, où ils ont vécu au cours du Trias. 
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Le clade le moins inclusif comprenant Azendohsaurus madagaskarensis Flynn et al., 2010 et Trilophosaurus buettneri Case, 1928, mais pas Tanystropheus longobardicus Bassani, 1886, ni Proterosuchus fergusi Broom, 1903a, ni Protorosaurus speneri Meyer, 1830, et ni Rhynchosaurus articeps Owen, 1842 »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Le clade le moins inclusif comprenant Azendohsaurus madagaskarensis Flynn et al., 2010 et Trilophosaurus buettneri Case, 1928, mais pas Tanystropheus longobardicus Bassani, 1886, ni Proterosuchus fergusi Broom, 1903a, ni Protorosaurus speneri Meyer, 1830, et ni Rhynchosaurus articeps Owen, 1842 ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition stratigraphique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont vécu du Trias inférieur avec l'espèce Coelodontognathus donensis Arkhangelskii &amp; Sennikov, 2008, durant l'Olénékien, il y a environ 250 Ma (millions d'années), jusqu'au Trias supérieur avec l'espèce Trilophosaurus buettneri du Norien, il y a environ 208 Ma (millions d'années).
 </t>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cladogrammes
-Trois cladogrammes des Allokotosauria ont été réalisés depuis la création du clade, celui de Nesbitt et ses collègues en 2015[1], une version simplifiée par Martin D. Ezcurra en 2016[2] et celui établi en 2017 par S. Sengupta et ses collègues à la suite de la description du nouveau genre indien Shringasaurus qui néglige le nouveau clade des Crocopoda[3].
+          <t>Cladogrammes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trois cladogrammes des Allokotosauria ont été réalisés depuis la création du clade, celui de Nesbitt et ses collègues en 2015, une version simplifiée par Martin D. Ezcurra en 2016 et celui établi en 2017 par S. Sengupta et ses collègues à la suite de la description du nouveau genre indien Shringasaurus qui néglige le nouveau clade des Crocopoda.
 Les trois cladogrammes sont présentés ci-dessous, du plus récent au plus ancien :
 S. Sengupta  et ses collègues, 2017 :
 M. D. Ezcurra, 2016 :
